--- a/public/downloads/results/2024/british/TESTED-RAW-SINGLE-LIFTS.xlsx
+++ b/public/downloads/results/2024/british/TESTED-RAW-SINGLE-LIFTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/UP DATED ROLLING  RECORDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/COMONWELTH ^0 EUROPEN RECORDES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="388" documentId="8_{55DAF8FF-3969-454A-A9A9-F8FEBD8CAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4192FD76-CBBB-4C97-BBA8-DC647CA5459A}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="8_{55DAF8FF-3969-454A-A9A9-F8FEBD8CAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D24FAF-81C5-4CD9-9066-5705725C246B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{172760D4-E3DE-4D25-882B-876521E15F60}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="118">
   <si>
     <t>MEN OPEN</t>
   </si>
@@ -204,343 +204,199 @@
     <t>WOMEN JUNIORS 20-23</t>
   </si>
   <si>
-    <t>RENZO CONSTANTINESCU</t>
-  </si>
-  <si>
-    <t>MAYHEM INBOSTON</t>
+    <t>MEN 16 - 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEN 13 - 15 </t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>LIFTED IN KG</t>
+  </si>
+  <si>
+    <t>MENS MARSTERS 1</t>
+  </si>
+  <si>
+    <t>WOMEN JUNIORS 13 - 15</t>
+  </si>
+  <si>
+    <t>SAL LACK</t>
+  </si>
+  <si>
+    <t>DT WORLD CHAPIONSHIPS</t>
+  </si>
+  <si>
+    <t>82.5KG</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>120.0KG</t>
+  </si>
+  <si>
+    <t>ROBERT CLAY</t>
+  </si>
+  <si>
+    <t>DT WORLD CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>215.0KG</t>
+  </si>
+  <si>
+    <t>PAUL BAINES</t>
+  </si>
+  <si>
+    <t>170.0KG</t>
+  </si>
+  <si>
+    <t>225.0KG</t>
+  </si>
+  <si>
+    <t>JULIE GARNER</t>
+  </si>
+  <si>
+    <t>DT WORLD CHAMPIONSHIP</t>
   </si>
   <si>
     <t>100.0KG</t>
   </si>
   <si>
-    <t>DAY OF THE DEAD</t>
+    <t>RENZ0 CONSTANTINESCU</t>
+  </si>
+  <si>
+    <t>MARIA McSHANE</t>
+  </si>
+  <si>
+    <t>DT WORLD CHAMIONSHIPS</t>
+  </si>
+  <si>
+    <t>160.0KG</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>CHARLIE SIMON</t>
+  </si>
+  <si>
+    <t>JULIE CHIRM</t>
+  </si>
+  <si>
+    <t>140.0KG</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>VALENTIN ROHN</t>
+  </si>
+  <si>
+    <t>162.5KG</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>PAUL MORGAN</t>
+  </si>
+  <si>
+    <t>MARINA ROSE</t>
+  </si>
+  <si>
+    <t>NICOLA ELDING</t>
+  </si>
+  <si>
+    <t>CSABA SIMON</t>
+  </si>
+  <si>
+    <t>EUR &amp; COMMENWELTH</t>
+  </si>
+  <si>
+    <t>255.0KG</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>PETER BATTAL</t>
+  </si>
+  <si>
+    <t>EUR &amp; COMENWELTH</t>
   </si>
   <si>
     <t>105.0KG</t>
   </si>
   <si>
+    <t>EUR &amp; COMMONWELTH</t>
+  </si>
+  <si>
+    <t>VIOLET THRALL</t>
+  </si>
+  <si>
+    <t>EUR &amp; COMMINGWELTH</t>
+  </si>
+  <si>
+    <t>DAVID STROUGHTON</t>
+  </si>
+  <si>
+    <t>135.0KG</t>
+  </si>
+  <si>
+    <t>280.0KG</t>
+  </si>
+  <si>
+    <t>FRANCESCO LO PORTO</t>
+  </si>
+  <si>
+    <t>EURO &amp; COMMONWELTH</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
     <t>IAN BLOTT</t>
   </si>
   <si>
-    <t>BRITISH CHAMPIONSHIPS</t>
-  </si>
-  <si>
     <t>60.0KG</t>
   </si>
   <si>
-    <t>HARLEY DOBSON</t>
-  </si>
-  <si>
-    <t>BRITISH CHAMPIONSHIP</t>
-  </si>
-  <si>
-    <t>137.5KG</t>
-  </si>
-  <si>
-    <t>BEX WAGER-WOOD</t>
-  </si>
-  <si>
-    <t>117.5KG</t>
-  </si>
-  <si>
-    <t>MANDI KERSHAW</t>
-  </si>
-  <si>
-    <t>90.0KG</t>
-  </si>
-  <si>
-    <t>LEIGHTON WHITBY</t>
-  </si>
-  <si>
-    <t>MAYHEM IN BOSTON</t>
-  </si>
-  <si>
-    <t>230.0KG</t>
-  </si>
-  <si>
-    <t>MEN 16 - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEN 13 - 15 </t>
-  </si>
-  <si>
-    <t>ELIAS BALIUKEVICIUS</t>
-  </si>
-  <si>
-    <t>80.0KG</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>COMP</t>
-  </si>
-  <si>
-    <t>LIFTED IN KG</t>
-  </si>
-  <si>
-    <t>HARRY BARKER</t>
-  </si>
-  <si>
-    <t>82.5KG</t>
-  </si>
-  <si>
-    <t>JAMIE BRAMLEY</t>
-  </si>
-  <si>
-    <t>140.0KG</t>
-  </si>
-  <si>
-    <t>JAVENO MCLEAN</t>
-  </si>
-  <si>
-    <t>MONTY CROWN</t>
-  </si>
-  <si>
-    <t>125.0KG</t>
-  </si>
-  <si>
-    <t>MENS MARSTERS 1</t>
-  </si>
-  <si>
-    <t>ROBERT CLAY</t>
-  </si>
-  <si>
-    <t>RECORD BREAKERS</t>
-  </si>
-  <si>
-    <t>KRIS TUCKER</t>
-  </si>
-  <si>
-    <t>130.0KG</t>
-  </si>
-  <si>
-    <t>JONATHAN CHIMA MAXWELL</t>
-  </si>
-  <si>
-    <t>192.5KG</t>
-  </si>
-  <si>
-    <t>PAUL BAINES</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>170.0KG</t>
-  </si>
-  <si>
-    <t>MARK BERGMANN</t>
-  </si>
-  <si>
-    <t>145.0KG</t>
-  </si>
-  <si>
-    <t>KEIRAN ROGAN</t>
-  </si>
-  <si>
-    <t>185.0KG</t>
-  </si>
-  <si>
-    <t>162.5KG</t>
-  </si>
-  <si>
-    <t>NUMAAN RAFIQUE</t>
-  </si>
-  <si>
-    <t>MATHEM IN BOSTON</t>
-  </si>
-  <si>
-    <t>190.0KG</t>
-  </si>
-  <si>
-    <t>OLD TYME</t>
-  </si>
-  <si>
-    <t>152.5KG</t>
-  </si>
-  <si>
-    <t>CHARLIE SIMON</t>
-  </si>
-  <si>
-    <t>JESSICA BOWLER</t>
-  </si>
-  <si>
-    <t>110.0KG</t>
-  </si>
-  <si>
-    <t>IMRAN KHAN</t>
-  </si>
-  <si>
-    <t>200.0KG</t>
-  </si>
-  <si>
-    <t>KAMILE CEPULYTE</t>
-  </si>
-  <si>
-    <t>JAMIE STUBBS</t>
-  </si>
-  <si>
-    <t>142.5KG</t>
-  </si>
-  <si>
-    <t>JODI DUNCAN</t>
-  </si>
-  <si>
-    <t>KERRY GORE</t>
-  </si>
-  <si>
-    <t>72.5KG</t>
-  </si>
-  <si>
-    <t>NICOLA ELDING</t>
-  </si>
-  <si>
-    <t>WOMEN JUNIORS 13 - 15</t>
-  </si>
-  <si>
-    <t>VIOLET THRALL</t>
-  </si>
-  <si>
-    <t>ELINA STRUTMANE</t>
-  </si>
-  <si>
-    <t>HEATHER SWAIN</t>
-  </si>
-  <si>
-    <t>MANSFIELD MANIA</t>
-  </si>
-  <si>
-    <t>DANUTA TRUEMAN</t>
-  </si>
-  <si>
-    <t>SALLY LACK</t>
-  </si>
-  <si>
-    <t>115.0KG</t>
-  </si>
-  <si>
-    <t>KELLY BROWN</t>
-  </si>
-  <si>
-    <t>DAYH OF THE DEAD</t>
-  </si>
-  <si>
-    <t>147.5KG</t>
-  </si>
-  <si>
-    <t>AMY BERGMAN</t>
-  </si>
-  <si>
-    <t>151.0KG</t>
-  </si>
-  <si>
-    <t>CLAIR RUSH</t>
-  </si>
-  <si>
-    <t>KATIE DEAVILLE</t>
-  </si>
-  <si>
-    <t>65.0KG</t>
-  </si>
-  <si>
-    <t>kamram DAVIS</t>
-  </si>
-  <si>
-    <t>MANSFIELD MANIAN</t>
-  </si>
-  <si>
-    <t>270.0KG</t>
-  </si>
-  <si>
-    <t>VICTORIA EYRES</t>
-  </si>
-  <si>
-    <t>122.5KG</t>
-  </si>
-  <si>
-    <t>40.0KG</t>
-  </si>
-  <si>
-    <t>PAUL MORGAN</t>
-  </si>
-  <si>
-    <t>MARK BOWLER</t>
-  </si>
-  <si>
-    <t>MARK BERGMAN</t>
-  </si>
-  <si>
-    <t>180.0KG</t>
-  </si>
-  <si>
-    <t>240.0KG</t>
-  </si>
-  <si>
-    <t>155.0KG</t>
-  </si>
-  <si>
-    <t>JULIE GARNER</t>
-  </si>
-  <si>
-    <t>92.5KG</t>
-  </si>
-  <si>
-    <t>ROZ GRIFFITHS</t>
+    <t>JONATHAN MAXWELL</t>
+  </si>
+  <si>
+    <t>EURO &amp; COMMONWALTH</t>
+  </si>
+  <si>
+    <t>197.5KG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPESHALL GUEST </t>
+  </si>
+  <si>
+    <t>HARRIET LACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR &amp; COMMONWELTH </t>
   </si>
   <si>
     <t>50.0KG</t>
   </si>
   <si>
-    <t>120.0KG</t>
-  </si>
-  <si>
-    <t>NJICOLA ELDING</t>
-  </si>
-  <si>
-    <t>JULIE CHURN</t>
-  </si>
-  <si>
-    <t>57.5KG</t>
-  </si>
-  <si>
-    <t>ZABETH COTTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANSFEILD </t>
-  </si>
-  <si>
-    <t>132.5KG</t>
-  </si>
-  <si>
-    <t>LEGHTON WHITBY</t>
-  </si>
-  <si>
-    <t>75.0KG</t>
-  </si>
-  <si>
-    <t>REBECCA ROUGHTON</t>
-  </si>
-  <si>
-    <t>WOMEN OF IRON</t>
-  </si>
-  <si>
-    <t>SUE DAVIES</t>
-  </si>
-  <si>
-    <t>IMOGEN TRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WOMEN OF IRON </t>
+    <t>AGE 11</t>
+  </si>
+  <si>
+    <t>165.0KG</t>
   </si>
   <si>
     <t>205.0KG</t>
-  </si>
-  <si>
-    <t>WASEEM KHAN</t>
   </si>
 </sst>
 </file>
@@ -630,6 +486,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,16 +789,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BABF1C-F4E5-47AB-8FBB-4D750358BC83}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H44" activeCellId="1" sqref="G45 H44"/>
+      <selection activeCell="D39" sqref="D39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="25.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" customWidth="1"/>
     <col min="6" max="6" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1047,382 +907,367 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="6">
-        <v>45010</v>
-      </c>
-      <c r="F24" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="E30" s="6">
-        <v>45067</v>
+        <v>45109</v>
       </c>
       <c r="F30" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34" s="6">
-        <v>44962</v>
+        <v>45219</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E44" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F44" t="s">
-        <v>59</v>
+        <v>45220</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="6">
-        <v>45200</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E49" s="6">
-        <v>44863</v>
+        <v>45108</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="G49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="6">
-        <v>45200</v>
-      </c>
-      <c r="F55" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1434,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D691E06C-D8F3-451C-82F4-08BACE14FA4E}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1445,6 +1290,7 @@
     <col min="4" max="4" width="15.81640625" customWidth="1"/>
     <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1548,385 +1394,319 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="6">
-        <v>45165</v>
-      </c>
-      <c r="F24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6">
-        <v>44695</v>
+        <v>45217</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F30" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="6">
-        <v>44660</v>
-      </c>
-      <c r="F35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="6">
+        <v>45220</v>
+      </c>
+      <c r="H49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="6">
+        <v>45220</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C56" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="6">
-        <v>44863</v>
-      </c>
-      <c r="F59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="6">
-        <v>44863</v>
-      </c>
-      <c r="F60" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C61" s="2"/>
     </row>
   </sheetData>
@@ -1936,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C820FD6-7416-4BDB-A7A7-99223D2C8040}">
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:H556"/>
   <sheetViews>
-    <sheetView topLeftCell="A551" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E505" sqref="E496:F505"/>
+    <sheetView topLeftCell="A270" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H287" sqref="H287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1951,7 +1731,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -2056,346 +1836,317 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="6">
+        <v>45108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="6">
-        <v>45025</v>
-      </c>
-      <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" s="6">
-        <v>45067</v>
-      </c>
-      <c r="F50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F54" t="s">
-        <v>59</v>
-      </c>
-      <c r="G54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="6">
-        <v>44695</v>
-      </c>
-      <c r="F59" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="2" t="s">
         <v>19</v>
@@ -3004,181 +2755,185 @@
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D172" t="s">
+        <v>87</v>
+      </c>
+      <c r="E172" s="6">
+        <v>45108</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G172" t="s">
+        <v>116</v>
+      </c>
+      <c r="H172" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D177" t="s">
-        <v>93</v>
-      </c>
-      <c r="E177" s="6">
-        <v>44619</v>
-      </c>
-      <c r="F177" t="s">
-        <v>94</v>
-      </c>
-      <c r="G177" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="2" t="s">
         <v>19</v>
@@ -3187,131 +2942,146 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D205" t="s">
+        <v>72</v>
+      </c>
+      <c r="E205" s="6">
+        <v>45218</v>
+      </c>
+      <c r="F205" t="s">
+        <v>73</v>
+      </c>
+      <c r="G205" t="s">
+        <v>74</v>
+      </c>
+      <c r="H205" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="2" t="s">
         <v>10</v>
@@ -3542,16 +3312,16 @@
         <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E244" s="6">
-        <v>45024</v>
+        <v>45221</v>
       </c>
       <c r="F244" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G244" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -3561,16 +3331,16 @@
         <v>6</v>
       </c>
       <c r="D245" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E245" s="6">
-        <v>45024</v>
+        <v>45221</v>
       </c>
       <c r="F245" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G245" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -3644,224 +3414,231 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="3"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D257" t="s">
+        <v>66</v>
+      </c>
+      <c r="E257" s="6">
+        <v>45220</v>
+      </c>
+      <c r="F257" t="s">
+        <v>67</v>
+      </c>
+      <c r="G257" t="s">
+        <v>68</v>
+      </c>
+      <c r="H257" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="3"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="3"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="3"/>
       <c r="B260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="3"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="3"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="3"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="3"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="3"/>
       <c r="B265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="3"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="3"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="3"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="3"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="3"/>
       <c r="B270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="3"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="3"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="3"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="3"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="3"/>
       <c r="B275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="3"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="3"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="3"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="3"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="3"/>
       <c r="B280" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="3"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="3"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="3"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="3"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="3"/>
       <c r="B285" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="3"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D286" t="s">
-        <v>87</v>
-      </c>
-      <c r="E286" s="6">
-        <v>44877</v>
-      </c>
-      <c r="F286" t="s">
-        <v>88</v>
-      </c>
-      <c r="G286" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E286" s="6"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D287" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E287" s="6">
-        <v>45025</v>
+        <v>45108</v>
       </c>
       <c r="F287" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G287" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="H287" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="3"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -4468,248 +4245,232 @@
       </c>
       <c r="C384" s="2"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="3"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="3"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="3"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="3"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="3"/>
       <c r="B389" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C389" s="2"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="3"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="3"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="3"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="3"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="3"/>
       <c r="B394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C394" s="2"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="3"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="3"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="3"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="3"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="3"/>
       <c r="B399" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C399" s="2"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="3"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D400" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E400" s="6">
-        <v>44695</v>
+        <v>45108</v>
       </c>
       <c r="F400" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="G400" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="H400" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="3"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D401" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="E401" s="6">
-        <v>45010</v>
+        <v>45108</v>
       </c>
       <c r="F401" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G401" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="H401" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="3"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="3"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="3"/>
       <c r="B404" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C404" s="2"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="3"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D405" t="s">
-        <v>58</v>
-      </c>
-      <c r="E405" s="6">
-        <v>45025</v>
-      </c>
-      <c r="F405" t="s">
-        <v>59</v>
-      </c>
-      <c r="G405" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E405" s="6"/>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="3"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D406" t="s">
-        <v>58</v>
-      </c>
-      <c r="E406" s="6">
-        <v>45025</v>
-      </c>
-      <c r="F406" t="s">
-        <v>59</v>
-      </c>
-      <c r="G406" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E406" s="6"/>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="3"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="3"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="3"/>
       <c r="B409" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C409" s="2"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="3"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="3"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="3"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="3"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="3"/>
       <c r="B414" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C414" s="2"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="3"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="3"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2" t="s">
@@ -5318,100 +5079,115 @@
       </c>
       <c r="C512" s="2"/>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" s="3"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" s="3"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" s="3"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" s="3"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" s="3"/>
       <c r="B517" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C517" s="2"/>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" s="3"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" s="3"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" s="3"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" s="3"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" s="3"/>
       <c r="B522" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C522" s="2"/>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" s="3"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" s="3"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D524" t="s">
+        <v>94</v>
+      </c>
+      <c r="E524" s="6">
+        <v>45109</v>
+      </c>
+      <c r="F524" t="s">
+        <v>95</v>
+      </c>
+      <c r="G524" t="s">
+        <v>96</v>
+      </c>
+      <c r="H524" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" s="3"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" s="3"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" s="3"/>
       <c r="B527" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C527" s="2"/>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" s="3"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2" t="s">
@@ -5597,10 +5373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06338A14-2AEF-425E-A012-7F152DE27D51}">
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:I489"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView topLeftCell="B101" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E173" activeCellId="1" sqref="E204 E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5608,6 +5384,7 @@
     <col min="5" max="5" width="19.54296875" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -5730,13 +5507,13 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
@@ -5744,7 +5521,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -5752,7 +5529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -5760,19 +5537,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2" t="s">
@@ -5780,7 +5557,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -5788,39 +5565,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="6">
-        <v>44619</v>
-      </c>
-      <c r="G25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
@@ -5828,7 +5594,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -5836,7 +5602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -5844,19 +5610,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
@@ -5864,7 +5630,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -5872,7 +5638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -5880,19 +5646,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2" t="s">
@@ -5900,7 +5666,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -5908,7 +5674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -5916,19 +5682,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
@@ -5936,27 +5702,16 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="6">
-        <v>45010</v>
-      </c>
-      <c r="G44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -5964,19 +5719,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
@@ -5984,7 +5739,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -5992,33 +5747,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" s="6">
-        <v>44962</v>
-      </c>
-      <c r="G50" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
@@ -6028,7 +5772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -6036,13 +5780,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
@@ -6050,7 +5794,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -6058,39 +5802,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="6">
-        <v>44695</v>
-      </c>
-      <c r="G57" t="s">
-        <v>59</v>
-      </c>
-      <c r="H57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="1" t="s">
@@ -6098,7 +5831,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
@@ -6108,7 +5841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="2" t="s">
@@ -6116,7 +5849,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
@@ -6124,7 +5857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
@@ -6246,13 +5979,13 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2" t="s">
@@ -6260,7 +5993,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="2"/>
@@ -6268,7 +6001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="2"/>
@@ -6276,19 +6009,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="2" t="s">
@@ -6296,7 +6029,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="2"/>
@@ -6304,39 +6037,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E89" t="s">
-        <v>146</v>
-      </c>
-      <c r="F89" s="6">
-        <v>45067</v>
-      </c>
-      <c r="G89" t="s">
-        <v>122</v>
-      </c>
-      <c r="H89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="2" t="s">
@@ -6344,7 +6066,7 @@
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
@@ -6352,7 +6074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
@@ -6360,19 +6082,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="2" t="s">
@@ -6380,7 +6102,7 @@
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
@@ -6388,7 +6110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
@@ -6396,39 +6118,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="2"/>
-      <c r="E102" t="s">
-        <v>148</v>
-      </c>
-      <c r="F102" s="6">
-        <v>44485</v>
-      </c>
-      <c r="G102" t="s">
-        <v>94</v>
-      </c>
-      <c r="H102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="2"/>
@@ -6436,7 +6147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="2"/>
@@ -6444,19 +6155,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="2" t="s">
@@ -6464,7 +6175,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="2"/>
@@ -6472,19 +6183,22 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
-      </c>
-      <c r="F108" s="6">
-        <v>45025</v>
+        <v>5</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G108" t="s">
-        <v>69</v>
-      </c>
-      <c r="H108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="H108" s="6">
+        <v>45220</v>
+      </c>
+      <c r="I108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="2"/>
@@ -6492,26 +6206,29 @@
         <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
-      </c>
-      <c r="F109" s="6">
-        <v>45025</v>
+        <v>6</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G109" t="s">
-        <v>69</v>
-      </c>
-      <c r="H109" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="H109" s="6">
+        <v>45220</v>
+      </c>
+      <c r="I109" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="2" t="s">
@@ -6520,7 +6237,7 @@
       <c r="D111" s="2"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="2"/>
@@ -6529,7 +6246,7 @@
       </c>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="2"/>
@@ -6538,14 +6255,14 @@
       </c>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="2" t="s">
@@ -6554,7 +6271,7 @@
       <c r="D115" s="2"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="2"/>
@@ -6563,33 +6280,22 @@
       </c>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E117" t="s">
-        <v>131</v>
-      </c>
-      <c r="F117" s="6">
-        <v>44695</v>
-      </c>
-      <c r="G117" t="s">
-        <v>59</v>
-      </c>
-      <c r="H117" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="1" t="s">
@@ -6597,7 +6303,7 @@
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="2" t="s">
@@ -6607,7 +6313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="2" t="s">
@@ -6615,7 +6321,7 @@
       </c>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="2"/>
@@ -6623,7 +6329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="2"/>
@@ -6631,19 +6337,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="2" t="s">
@@ -6651,7 +6357,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="2"/>
@@ -6659,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="2"/>
@@ -6667,19 +6373,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="2" t="s">
@@ -6687,7 +6393,7 @@
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="2"/>
@@ -6695,7 +6401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="2"/>
@@ -6703,19 +6409,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="2" t="s">
@@ -6723,7 +6429,7 @@
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="2"/>
@@ -6731,7 +6437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="2"/>
@@ -6739,19 +6445,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="2" t="s">
@@ -6759,7 +6465,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="2"/>
@@ -6767,39 +6473,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E143" t="s">
-        <v>115</v>
-      </c>
-      <c r="F143" s="6">
-        <v>45010</v>
-      </c>
-      <c r="G143" t="s">
-        <v>69</v>
-      </c>
-      <c r="H143" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="2" t="s">
@@ -6807,7 +6502,7 @@
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="2"/>
@@ -6815,39 +6510,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E148" t="s">
-        <v>117</v>
-      </c>
-      <c r="F148" s="6">
-        <v>45165</v>
-      </c>
-      <c r="G148" t="s">
-        <v>160</v>
-      </c>
-      <c r="H148" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="2" t="s">
@@ -6855,59 +6539,37 @@
       </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E152" t="s">
-        <v>161</v>
-      </c>
-      <c r="F152" s="6">
-        <v>45165</v>
-      </c>
-      <c r="G152" t="s">
-        <v>160</v>
-      </c>
-      <c r="H152" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E153" t="s">
-        <v>66</v>
-      </c>
-      <c r="F153" s="6">
-        <v>44693</v>
-      </c>
-      <c r="G153" t="s">
-        <v>59</v>
-      </c>
-      <c r="H153" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="2" t="s">
@@ -6915,7 +6577,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="2"/>
@@ -6923,7 +6585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="2"/>
@@ -6931,13 +6593,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="2"/>
@@ -7179,7 +6841,7 @@
       </c>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="2"/>
@@ -7187,7 +6849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="2"/>
@@ -7195,19 +6857,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="2" t="s">
@@ -7215,47 +6877,51 @@
       </c>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E198" t="s">
-        <v>151</v>
-      </c>
-      <c r="F198" s="6">
-        <v>45025</v>
-      </c>
-      <c r="G198" t="s">
-        <v>59</v>
-      </c>
-      <c r="H198" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E199" t="s">
+        <v>89</v>
+      </c>
+      <c r="F199" s="6">
+        <v>45218</v>
+      </c>
+      <c r="G199" t="s">
+        <v>67</v>
+      </c>
+      <c r="H199" t="s">
+        <v>65</v>
+      </c>
+      <c r="I199" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="2" t="s">
@@ -7263,7 +6929,7 @@
       </c>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="2"/>
@@ -7271,7 +6937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="2"/>
@@ -7279,19 +6945,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="2" t="s">
@@ -7299,7 +6965,7 @@
       </c>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="2"/>
@@ -7307,7 +6973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="2"/>
@@ -7315,19 +6981,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="2" t="s">
@@ -7335,7 +7001,7 @@
       </c>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="2"/>
@@ -7343,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="2"/>
@@ -7351,19 +7017,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="2" t="s">
@@ -7371,7 +7037,7 @@
       </c>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="2"/>
@@ -7379,7 +7045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="2"/>
@@ -7387,19 +7053,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="2" t="s">
@@ -7407,27 +7073,16 @@
       </c>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E223" t="s">
-        <v>152</v>
-      </c>
-      <c r="F223" s="6">
-        <v>45025</v>
-      </c>
-      <c r="G223" t="s">
-        <v>59</v>
-      </c>
-      <c r="H223" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="2"/>
@@ -7435,16 +7090,19 @@
         <v>6</v>
       </c>
       <c r="E224" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="F224" s="6">
-        <v>45025</v>
+        <v>45221</v>
       </c>
       <c r="G224" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H224" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="I224" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
@@ -9356,10 +9014,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C7C2D9-02F1-4D6E-A2D8-90EF450C8FDD}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView topLeftCell="H32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O21:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9367,13 +9025,14 @@
     <col min="5" max="5" width="21.54296875" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.90625" customWidth="1"/>
-    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.81640625" customWidth="1"/>
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>36</v>
@@ -9385,19 +9044,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>2</v>
@@ -9577,7 +9236,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
@@ -9590,7 +9249,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -9602,8 +9261,23 @@
       <c r="L18" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="6">
+        <v>45107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -9616,7 +9290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -9625,7 +9299,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
@@ -9634,7 +9308,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
@@ -9647,32 +9321,21 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="6">
-        <v>45010</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" t="s">
-        <v>74</v>
-      </c>
+      <c r="F23" s="6"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
@@ -9684,20 +9347,9 @@
       <c r="L24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M24" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="6">
-        <v>44836</v>
-      </c>
-      <c r="O24" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
@@ -9706,7 +9358,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
@@ -9715,7 +9367,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
@@ -9728,7 +9380,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
@@ -9741,7 +9393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
@@ -9754,7 +9406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
@@ -9763,7 +9415,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
@@ -9772,7 +9424,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
@@ -9969,7 +9621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2"/>
@@ -9982,7 +9634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="2"/>
@@ -9991,7 +9643,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="2"/>
@@ -10000,7 +9652,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
@@ -10013,7 +9665,7 @@
       </c>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2"/>
@@ -10026,7 +9678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2"/>
@@ -10039,19 +9691,22 @@
         <v>6</v>
       </c>
       <c r="M54" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="N54" s="6">
-        <v>45010</v>
+        <v>45221</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2"/>
@@ -10060,7 +9715,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="2"/>
@@ -10069,7 +9724,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
@@ -10082,7 +9737,7 @@
       </c>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2"/>
@@ -10095,7 +9750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2"/>
@@ -10115,21 +9770,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA40B181-BCAB-4773-908F-FBA5D584CDE9}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="I1" t="s">
@@ -10251,11 +9909,11 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -10264,7 +9922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -10273,7 +9931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -10282,15 +9940,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -10299,7 +9957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -10308,7 +9966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -10317,15 +9975,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -10334,7 +9992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -10343,7 +10001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
@@ -10351,28 +10009,17 @@
       <c r="J30" t="s">
         <v>6</v>
       </c>
-      <c r="K30" t="s">
-        <v>154</v>
-      </c>
-      <c r="L30" s="7">
-        <v>45067</v>
-      </c>
-      <c r="M30" t="s">
-        <v>155</v>
-      </c>
-      <c r="N30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -10381,7 +10028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -10390,7 +10037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -10399,27 +10046,30 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="6">
-        <v>44836</v>
-      </c>
-      <c r="M35" t="s">
-        <v>69</v>
+        <v>98</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="6">
+        <v>45107</v>
       </c>
       <c r="N35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="O35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -10428,7 +10078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -10437,7 +10087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>6</v>
@@ -10446,15 +10096,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -10463,7 +10113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>5</v>
@@ -10472,7 +10122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
@@ -10481,15 +10131,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
@@ -10512,18 +10162,7 @@
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="6">
-        <v>45165</v>
-      </c>
-      <c r="E50" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" t="s">
-        <v>80</v>
-      </c>
+      <c r="D50" s="6"/>
       <c r="J50" t="s">
         <v>6</v>
       </c>
@@ -10557,18 +10196,7 @@
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="6">
-        <v>44695</v>
-      </c>
-      <c r="E55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
-      </c>
+      <c r="D55" s="6"/>
       <c r="J55" t="s">
         <v>6</v>
       </c>
@@ -10603,6 +10231,29 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="6">
+        <v>45108</v>
+      </c>
+      <c r="F62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10611,10 +10262,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2118BC-B72B-4461-A081-EB1951C58B98}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10728,160 +10379,105 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="6">
-        <v>45010</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="6">
-        <v>44695</v>
-      </c>
-      <c r="G23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="6">
-        <v>44695</v>
-      </c>
-      <c r="G24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F28" s="6">
-        <v>44863</v>
-      </c>
-      <c r="G28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="6">
-        <v>44836</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -11064,9 +10660,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1A1623-92E2-4176-83B3-C158D30B4A4C}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -11181,222 +10777,214 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="E20" s="6">
-        <v>45025</v>
+        <v>45217</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="6">
-        <v>44808</v>
-      </c>
-      <c r="F40" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
         <v>22</v>

--- a/public/downloads/results/2024/british/TESTED-RAW-SINGLE-LIFTS.xlsx
+++ b/public/downloads/results/2024/british/TESTED-RAW-SINGLE-LIFTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/COMONWELTH ^0 EUROPEN RECORDES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BRITISH ROLLING  RECORDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="8_{55DAF8FF-3969-454A-A9A9-F8FEBD8CAC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10D24FAF-81C5-4CD9-9066-5705725C246B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C40B39D-7239-432F-81A6-854ED235D1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{172760D4-E3DE-4D25-882B-876521E15F60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{172760D4-E3DE-4D25-882B-876521E15F60}"/>
   </bookViews>
   <sheets>
     <sheet name="MENS OPEN" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="129">
   <si>
     <t>MEN OPEN</t>
   </si>
@@ -397,12 +397,48 @@
   </si>
   <si>
     <t>205.0KG</t>
+  </si>
+  <si>
+    <t>IMOGEN TRIM</t>
+  </si>
+  <si>
+    <t>THE MONTY CROWN</t>
+  </si>
+  <si>
+    <t>FREDDIE SIMON</t>
+  </si>
+  <si>
+    <t>187.5KG</t>
+  </si>
+  <si>
+    <t>GRAHAM MASON</t>
+  </si>
+  <si>
+    <t>MAYHEM IN BOSTON</t>
+  </si>
+  <si>
+    <t>145.0KG</t>
+  </si>
+  <si>
+    <t>MARK BERGAMANN</t>
+  </si>
+  <si>
+    <t>150.0KG</t>
+  </si>
+  <si>
+    <t>MACKENZIE WARRANT</t>
+  </si>
+  <si>
+    <t>220.0KG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -471,6 +507,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,14 +525,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -533,7 +566,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -639,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -781,7 +814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -791,11 +824,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BABF1C-F4E5-47AB-8FBB-4D750358BC83}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D39" sqref="D39:I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="25.453125" customWidth="1"/>
     <col min="5" max="5" width="19.6328125" customWidth="1"/>
@@ -1285,7 +1318,7 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15.81640625" customWidth="1"/>
     <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
@@ -1718,11 +1751,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C820FD6-7416-4BDB-A7A7-99223D2C8040}">
   <dimension ref="A1:H556"/>
   <sheetViews>
-    <sheetView topLeftCell="A270" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H287" sqref="H287"/>
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" customWidth="1"/>
@@ -2050,14 +2083,14 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
@@ -2065,24 +2098,24 @@
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
@@ -2090,63 +2123,74 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="6">
+        <v>45354</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="2" t="s">
         <v>19</v>
@@ -3614,7 +3658,21 @@
       <c r="C286" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E286" s="6"/>
+      <c r="D286" t="s">
+        <v>122</v>
+      </c>
+      <c r="E286" s="6">
+        <v>45354</v>
+      </c>
+      <c r="F286" t="s">
+        <v>123</v>
+      </c>
+      <c r="G286" t="s">
+        <v>124</v>
+      </c>
+      <c r="H286" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
@@ -5379,12 +5437,12 @@
       <selection activeCell="E173" activeCellId="1" sqref="E204 E173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.26953125" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -9016,18 +9074,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C7C2D9-02F1-4D6E-A2D8-90EF450C8FDD}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="H32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O21:O26"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.90625" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
     <col min="13" max="13" width="24.81640625" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.08984375" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -9264,7 +9323,7 @@
       <c r="M18" t="s">
         <v>75</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="8">
         <v>45107</v>
       </c>
       <c r="O18" t="s">
@@ -9347,7 +9406,21 @@
       <c r="L24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="M24" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="8">
+        <v>45354</v>
+      </c>
+      <c r="O24" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
@@ -9437,7 +9510,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="2"/>
@@ -9450,7 +9523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
@@ -9463,7 +9536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="2"/>
@@ -9472,7 +9545,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="2"/>
@@ -9481,7 +9554,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="2" t="s">
@@ -9494,7 +9567,7 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
@@ -9507,7 +9580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2"/>
@@ -9520,7 +9593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2"/>
@@ -9529,7 +9602,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2"/>
@@ -9538,7 +9611,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
@@ -9551,7 +9624,7 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2"/>
@@ -9564,7 +9637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="2"/>
@@ -9576,8 +9649,23 @@
       <c r="L44" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M44" t="s">
+        <v>120</v>
+      </c>
+      <c r="N44" s="8">
+        <v>45326</v>
+      </c>
+      <c r="O44" t="s">
+        <v>119</v>
+      </c>
+      <c r="P44" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="2"/>
@@ -9586,7 +9674,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2"/>
@@ -9595,7 +9683,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
@@ -9608,7 +9696,7 @@
       </c>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2"/>
@@ -9693,7 +9781,7 @@
       <c r="M54" t="s">
         <v>80</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="8">
         <v>45221</v>
       </c>
       <c r="O54" t="s">
@@ -9770,13 +9858,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA40B181-BCAB-4773-908F-FBA5D584CDE9}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="3" max="3" width="15.453125" customWidth="1"/>
@@ -10148,7 +10236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -10157,7 +10245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -10167,15 +10255,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -10184,7 +10272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
         <v>5</v>
       </c>
@@ -10192,7 +10280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -10200,11 +10288,29 @@
       <c r="J55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" t="s">
+        <v>118</v>
+      </c>
+      <c r="L55" s="6">
+        <v>45326</v>
+      </c>
+      <c r="M55" t="s">
+        <v>119</v>
+      </c>
+      <c r="N55" t="s">
+        <v>74</v>
+      </c>
+      <c r="O55">
+        <v>16</v>
+      </c>
+      <c r="P55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -10213,7 +10319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
@@ -10221,7 +10327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -10229,10 +10335,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -10268,11 +10374,11 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="22.36328125" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.08984375" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.35">
@@ -10666,10 +10772,10 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
